--- a/Files/MedQ Files/MedQ_results.xlsx
+++ b/Files/MedQ Files/MedQ_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/47bc981eb124341c/Ambiente de Trabalho/TESE_2024/DATASETS TESE/DATASET_ANSWERS/MedQ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="713" documentId="11_6D72FDCE8F79A8D366075C52F38212F15782CC99" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A430245A-DED9-41FE-9646-DC341264A5F3}"/>
+  <xr:revisionPtr revIDLastSave="797" documentId="11_6D72FDCE8F79A8D366075C52F38212F15782CC99" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2474FD71-2C80-4394-92A2-36B39F3FC7B8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Analysis" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="60">
   <si>
     <t>Subject</t>
   </si>
@@ -200,6 +200,21 @@
   </si>
   <si>
     <t>p (for GPT-4)</t>
+  </si>
+  <si>
+    <t>test statistic</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>Anesthesia</t>
+  </si>
+  <si>
+    <t>Gynecology &amp; Obstetrics</t>
   </si>
 </sst>
 </file>
@@ -496,7 +511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -592,6 +607,15 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -613,14 +637,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -799,7 +831,7 @@
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>Anaesthesia</c:v>
+                  <c:v>Anesthesia</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Anatomy</c:v>
@@ -817,7 +849,7 @@
                   <c:v>Forensic Medicine</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Gynaecology &amp; Obstetrics</c:v>
+                  <c:v>Gynecology &amp; Obstetrics</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Medicine</c:v>
@@ -1016,7 +1048,7 @@
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>Anaesthesia</c:v>
+                  <c:v>Anesthesia</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Anatomy</c:v>
@@ -1034,7 +1066,7 @@
                   <c:v>Forensic Medicine</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Gynaecology &amp; Obstetrics</c:v>
+                  <c:v>Gynecology &amp; Obstetrics</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Medicine</c:v>
@@ -2733,11 +2765,1554 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FBA0AEB-0794-471D-932C-2719E3649B9D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="609600" y="3149600"/>
+              <a:ext cx="9899650" cy="2171700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1"/>
+                <a:t>Theory</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+                <a:t> behind hypothesis test:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>To</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t> test if GPT-4 is better than GPT-3.5, we can test the following hypothesis:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐻</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>0</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>: </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑣𝑠</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐻</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>: </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>&lt;</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>, </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑤h𝑒𝑟𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑖𝑠</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑡h𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑚𝑒𝑎𝑛</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑓𝑜𝑟</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐺𝑃𝑇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−3.5 </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑎𝑛𝑑</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑡h𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑚𝑒𝑎𝑛</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑓𝑜𝑟</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐺𝑃𝑇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−4.</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="pt-PT" sz="1100" b="0" i="1">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑡𝑒𝑠𝑡</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑠𝑡𝑎𝑡𝑖𝑠𝑡𝑖𝑐</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>:</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑧</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝜇</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝜇</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:num>
+                      <m:den>
+                        <m:rad>
+                          <m:radPr>
+                            <m:degHide m:val="on"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:radPr>
+                          <m:deg/>
+                          <m:e>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:sSubSup>
+                                  <m:sSubSupPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubSupPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝜎</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>1</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                  <m:sup>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>2</m:t>
+                                    </m:r>
+                                  </m:sup>
+                                </m:sSubSup>
+                              </m:num>
+                              <m:den>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑛</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>1</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                              </m:den>
+                            </m:f>
+                            <m:r>
+                              <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>+ </m:t>
+                            </m:r>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:sSubSup>
+                                  <m:sSubSupPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubSupPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝜎</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>2</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                  <m:sup>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>2</m:t>
+                                    </m:r>
+                                  </m:sup>
+                                </m:sSubSup>
+                              </m:num>
+                              <m:den>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑛</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>2</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                              </m:den>
+                            </m:f>
+                          </m:e>
+                        </m:rad>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="el-GR" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>~</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑁</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>(0,1), </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑢𝑛𝑑𝑒𝑟</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐻</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>0 </m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑤h𝑒𝑟𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜎</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑖𝑠</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑡h𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑠𝑡𝑑</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>. </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑑𝑒𝑣</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>. </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑓𝑜𝑟</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐺𝑃𝑇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−3.5, </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜎</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑡h𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑠𝑡𝑑</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>. </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑑𝑒𝑣</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>. </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑓𝑜𝑟</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐺𝑃𝑇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−4 </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑎𝑛𝑑</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑎𝑛𝑑</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑡h𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑛𝑢𝑚𝑏𝑒𝑟</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑜𝑓</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑜𝑏𝑠𝑒𝑟𝑣𝑎𝑡𝑖𝑜𝑛𝑠</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑖𝑛</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐺𝑃𝑇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−3.5 </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑎𝑛𝑑</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐺𝑃𝑇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−4 </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑟𝑒𝑠𝑝𝑒𝑐𝑡𝑖𝑣𝑒𝑙𝑦</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>.</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>If the level</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t> of confidence is higher than the p-value then we have statistical evidence that GPT-3.5 is less effective than GPT-4.</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t> 	</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FBA0AEB-0794-471D-932C-2719E3649B9D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="609600" y="3149600"/>
+              <a:ext cx="9899650" cy="2171700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1"/>
+                <a:t>Theory</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+                <a:t> behind hypothesis test:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>To</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t> test if GPT-4 is better than GPT-3.5, we can test the following hypothesis:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐻</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>0: </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜇_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>1=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜇_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2  𝑣𝑠 𝐻_1: </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜇_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>&lt;𝜇_2, 𝑤ℎ𝑒𝑟𝑒 𝜇_1  𝑖𝑠 𝑡ℎ𝑒 𝑚𝑒𝑎𝑛 𝑓𝑜𝑟 𝐺𝑃𝑇−3.5 𝑎𝑛𝑑 𝜇_2 𝑡ℎ𝑒 𝑚𝑒𝑎𝑛 𝑓𝑜𝑟 𝐺𝑃𝑇−4.</a:t>
+              </a:r>
+              <a:endParaRPr lang="pt-PT" sz="1100" b="0" i="1">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑡𝑒𝑠𝑡 𝑠𝑡𝑎𝑡𝑖𝑠𝑡𝑖𝑐:𝑧=  (𝜇_1−𝜇_2)/√((𝜎_1^2)/𝑛_1 + (𝜎_2^2)/𝑛_2 )  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>~</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> 𝑁(0,1), 𝑢𝑛𝑑𝑒𝑟 𝐻_(0 ) 𝑤ℎ𝑒𝑟𝑒 𝜎_1 𝑖𝑠 𝑡ℎ𝑒 𝑠𝑡𝑑. 𝑑𝑒𝑣. 𝑓𝑜𝑟 𝐺𝑃𝑇−3.5, 𝜎_2 𝑡ℎ𝑒 𝑠𝑡𝑑. 𝑑𝑒𝑣. 𝑓𝑜𝑟 𝐺𝑃𝑇−4 𝑎𝑛𝑑 𝑛_1 𝑎𝑛𝑑 𝑛_2  𝑡ℎ𝑒 𝑛𝑢𝑚𝑏𝑒𝑟 𝑜𝑓 𝑜𝑏𝑠𝑒𝑟𝑣𝑎𝑡𝑖𝑜𝑛𝑠 𝑖𝑛 𝐺𝑃𝑇−3.5 𝑎𝑛𝑑 𝐺𝑃𝑇−4 𝑟𝑒𝑠𝑝𝑒𝑐𝑡𝑖𝑣𝑒𝑙𝑦.</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>If the level</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t> of confidence is higher than the p-value then we have statistical evidence that GPT-3.5 is less effective than GPT-4.</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t> 	</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3029,8 +4604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3082,7 +4657,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="25" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="B2">
         <v>90</v>
@@ -3093,11 +4668,11 @@
       <c r="D2">
         <v>63</v>
       </c>
-      <c r="E2" s="52">
+      <c r="E2" s="45">
         <f>C2/B2</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="F2" s="52">
+      <c r="F2" s="45">
         <f>D2/B2</f>
         <v>0.7</v>
       </c>
@@ -3127,12 +4702,12 @@
       <c r="D3">
         <v>64</v>
       </c>
-      <c r="E3" s="52">
+      <c r="E3" s="45">
         <f t="shared" ref="E3:E21" si="0">C3/B3</f>
         <v>0.52222222222222225</v>
       </c>
-      <c r="F3" s="52">
-        <f t="shared" ref="E3:F21" si="1">D3/B3</f>
+      <c r="F3" s="45">
+        <f t="shared" ref="F3:F21" si="1">D3/B3</f>
         <v>0.71111111111111114</v>
       </c>
       <c r="G3">
@@ -3161,11 +4736,11 @@
       <c r="D4">
         <v>70</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="45">
         <f t="shared" si="0"/>
         <v>0.6333333333333333</v>
       </c>
-      <c r="F4" s="52">
+      <c r="F4" s="45">
         <f t="shared" si="1"/>
         <v>0.77777777777777779</v>
       </c>
@@ -3195,11 +4770,11 @@
       <c r="D5">
         <v>63</v>
       </c>
-      <c r="E5" s="52">
+      <c r="E5" s="45">
         <f t="shared" si="0"/>
         <v>0.61111111111111116</v>
       </c>
-      <c r="F5" s="52">
+      <c r="F5" s="45">
         <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
@@ -3229,11 +4804,11 @@
       <c r="D6">
         <v>64</v>
       </c>
-      <c r="E6" s="52">
+      <c r="E6" s="45">
         <f t="shared" si="0"/>
         <v>0.52222222222222225</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="45">
         <f t="shared" si="1"/>
         <v>0.71111111111111114</v>
       </c>
@@ -3263,11 +4838,11 @@
       <c r="D7">
         <v>62</v>
       </c>
-      <c r="E7" s="52">
+      <c r="E7" s="45">
         <f t="shared" si="0"/>
         <v>0.46666666666666667</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="45">
         <f t="shared" si="1"/>
         <v>0.68888888888888888</v>
       </c>
@@ -3286,7 +4861,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="25" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="B8">
         <v>90</v>
@@ -3297,11 +4872,11 @@
       <c r="D8">
         <v>63</v>
       </c>
-      <c r="E8" s="52">
+      <c r="E8" s="45">
         <f t="shared" si="0"/>
         <v>0.46666666666666667</v>
       </c>
-      <c r="F8" s="52">
+      <c r="F8" s="45">
         <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
@@ -3331,11 +4906,11 @@
       <c r="D9">
         <v>70</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="45">
         <f t="shared" si="0"/>
         <v>0.67777777777777781</v>
       </c>
-      <c r="F9" s="52">
+      <c r="F9" s="45">
         <f t="shared" si="1"/>
         <v>0.77777777777777779</v>
       </c>
@@ -3365,11 +4940,11 @@
       <c r="D10">
         <v>64</v>
       </c>
-      <c r="E10" s="52">
+      <c r="E10" s="45">
         <f t="shared" si="0"/>
         <v>0.61111111111111116</v>
       </c>
-      <c r="F10" s="52">
+      <c r="F10" s="45">
         <f t="shared" si="1"/>
         <v>0.71111111111111114</v>
       </c>
@@ -3399,11 +4974,11 @@
       <c r="D11">
         <v>61</v>
       </c>
-      <c r="E11" s="52">
+      <c r="E11" s="45">
         <f t="shared" si="0"/>
         <v>0.5444444444444444</v>
       </c>
-      <c r="F11" s="52">
+      <c r="F11" s="45">
         <f t="shared" si="1"/>
         <v>0.67777777777777781</v>
       </c>
@@ -3433,11 +5008,11 @@
       <c r="D12">
         <v>66</v>
       </c>
-      <c r="E12" s="52">
+      <c r="E12" s="45">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="F12" s="52">
+      <c r="F12" s="45">
         <f t="shared" si="1"/>
         <v>0.73333333333333328</v>
       </c>
@@ -3467,11 +5042,11 @@
       <c r="D13">
         <v>71</v>
       </c>
-      <c r="E13" s="52">
+      <c r="E13" s="45">
         <f t="shared" si="0"/>
         <v>0.67777777777777781</v>
       </c>
-      <c r="F13" s="52">
+      <c r="F13" s="45">
         <f t="shared" si="1"/>
         <v>0.78888888888888886</v>
       </c>
@@ -3501,11 +5076,11 @@
       <c r="D14">
         <v>67</v>
       </c>
-      <c r="E14" s="52">
+      <c r="E14" s="45">
         <f t="shared" si="0"/>
         <v>0.57777777777777772</v>
       </c>
-      <c r="F14" s="52">
+      <c r="F14" s="45">
         <f t="shared" si="1"/>
         <v>0.74444444444444446</v>
       </c>
@@ -3535,11 +5110,11 @@
       <c r="D15">
         <v>61</v>
       </c>
-      <c r="E15" s="52">
+      <c r="E15" s="45">
         <f t="shared" si="0"/>
         <v>0.68888888888888888</v>
       </c>
-      <c r="F15" s="52">
+      <c r="F15" s="45">
         <f t="shared" si="1"/>
         <v>0.67777777777777781</v>
       </c>
@@ -3569,11 +5144,11 @@
       <c r="D16">
         <v>67</v>
       </c>
-      <c r="E16" s="52">
+      <c r="E16" s="45">
         <f t="shared" si="0"/>
         <v>0.56666666666666665</v>
       </c>
-      <c r="F16" s="52">
+      <c r="F16" s="45">
         <f t="shared" si="1"/>
         <v>0.74444444444444446</v>
       </c>
@@ -3603,11 +5178,11 @@
       <c r="D17">
         <v>69</v>
       </c>
-      <c r="E17" s="52">
+      <c r="E17" s="45">
         <f t="shared" si="0"/>
         <v>0.64444444444444449</v>
       </c>
-      <c r="F17" s="52">
+      <c r="F17" s="45">
         <f t="shared" si="1"/>
         <v>0.76666666666666672</v>
       </c>
@@ -3637,11 +5212,11 @@
       <c r="D18">
         <v>59</v>
       </c>
-      <c r="E18" s="52">
+      <c r="E18" s="45">
         <f t="shared" si="0"/>
         <v>0.52222222222222225</v>
       </c>
-      <c r="F18" s="52">
+      <c r="F18" s="45">
         <f t="shared" si="1"/>
         <v>0.65555555555555556</v>
       </c>
@@ -3671,11 +5246,11 @@
       <c r="D19">
         <v>73</v>
       </c>
-      <c r="E19" s="52">
+      <c r="E19" s="45">
         <f t="shared" si="0"/>
         <v>0.67777777777777781</v>
       </c>
-      <c r="F19" s="52">
+      <c r="F19" s="45">
         <f t="shared" si="1"/>
         <v>0.81111111111111112</v>
       </c>
@@ -3705,11 +5280,11 @@
       <c r="D20">
         <v>59</v>
       </c>
-      <c r="E20" s="52">
+      <c r="E20" s="45">
         <f t="shared" si="0"/>
         <v>0.57777777777777772</v>
       </c>
-      <c r="F20" s="52">
+      <c r="F20" s="45">
         <f t="shared" si="1"/>
         <v>0.65555555555555556</v>
       </c>
@@ -3739,11 +5314,11 @@
       <c r="D21" s="5">
         <v>65</v>
       </c>
-      <c r="E21" s="53">
+      <c r="E21" s="46">
         <f t="shared" si="0"/>
         <v>0.62222222222222223</v>
       </c>
-      <c r="F21" s="53">
+      <c r="F21" s="46">
         <f t="shared" si="1"/>
         <v>0.72222222222222221</v>
       </c>
@@ -3776,11 +5351,11 @@
         <f>SUM(D2:D21)</f>
         <v>1301</v>
       </c>
-      <c r="E22" s="54">
+      <c r="E22" s="47">
         <f>C22/B22</f>
         <v>0.58277777777777773</v>
       </c>
-      <c r="F22" s="54">
+      <c r="F22" s="47">
         <f>D22/B22</f>
         <v>0.72277777777777774</v>
       </c>
@@ -3816,7 +5391,7 @@
     <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F25" s="15"/>
       <c r="G25" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="H25" s="42">
         <f>(F2-E2)/E2</f>
@@ -3912,7 +5487,7 @@
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F31" s="15"/>
       <c r="G31" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="H31" s="42">
         <f t="shared" si="3"/>
@@ -3923,7 +5498,7 @@
       </c>
       <c r="J31" t="str">
         <f>INDEX(A2:A21, MATCH(MIN(C2:C21), C2:C21, 0))</f>
-        <v>Anaesthesia</v>
+        <v>Anesthesia</v>
       </c>
       <c r="K31" s="4">
         <f>MIN(C2:C21)</f>
@@ -4117,18 +5692,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2759609-8992-4972-A965-8AD5EE212BB8}">
-  <dimension ref="A8:AR16"/>
+  <dimension ref="A8:AR53"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="29.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.26953125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.54296875" customWidth="1"/>
@@ -4156,96 +5731,96 @@
       <c r="AR8" s="5"/>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="45" t="s">
+      <c r="D9" s="51"/>
+      <c r="E9" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="46"/>
-      <c r="G9" s="45" t="s">
+      <c r="F9" s="51"/>
+      <c r="G9" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="46"/>
-      <c r="I9" s="45" t="s">
+      <c r="H9" s="51"/>
+      <c r="I9" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="46"/>
-      <c r="K9" s="45" t="s">
+      <c r="J9" s="51"/>
+      <c r="K9" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="46"/>
-      <c r="M9" s="45" t="s">
+      <c r="L9" s="51"/>
+      <c r="M9" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="N9" s="46"/>
-      <c r="O9" s="45" t="s">
+      <c r="N9" s="51"/>
+      <c r="O9" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="45" t="s">
+      <c r="P9" s="51"/>
+      <c r="Q9" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="R9" s="46"/>
-      <c r="S9" s="45" t="s">
+      <c r="R9" s="51"/>
+      <c r="S9" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="T9" s="46"/>
-      <c r="U9" s="45" t="s">
+      <c r="T9" s="51"/>
+      <c r="U9" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="V9" s="46"/>
-      <c r="W9" s="45" t="s">
+      <c r="V9" s="51"/>
+      <c r="W9" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="X9" s="46"/>
-      <c r="Y9" s="45" t="s">
+      <c r="X9" s="51"/>
+      <c r="Y9" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="Z9" s="46"/>
-      <c r="AA9" s="45" t="s">
+      <c r="Z9" s="51"/>
+      <c r="AA9" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="AB9" s="46"/>
-      <c r="AC9" s="45" t="s">
+      <c r="AB9" s="51"/>
+      <c r="AC9" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="AD9" s="46"/>
-      <c r="AE9" s="45" t="s">
+      <c r="AD9" s="51"/>
+      <c r="AE9" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="AF9" s="45"/>
-      <c r="AG9" s="45" t="s">
+      <c r="AF9" s="50"/>
+      <c r="AG9" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="AH9" s="46"/>
-      <c r="AI9" s="45" t="s">
+      <c r="AH9" s="51"/>
+      <c r="AI9" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="AJ9" s="46"/>
-      <c r="AK9" s="45" t="s">
+      <c r="AJ9" s="51"/>
+      <c r="AK9" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="AL9" s="46"/>
-      <c r="AM9" s="45" t="s">
+      <c r="AL9" s="51"/>
+      <c r="AM9" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="AN9" s="46"/>
-      <c r="AO9" s="45" t="s">
+      <c r="AN9" s="51"/>
+      <c r="AO9" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AP9" s="46"/>
-      <c r="AQ9" s="50" t="s">
+      <c r="AP9" s="51"/>
+      <c r="AQ9" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="AR9" s="51"/>
+      <c r="AR9" s="56"/>
     </row>
     <row r="10" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="49"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="32" t="s">
         <v>40</v>
       </c>
@@ -5243,6 +6818,357 @@
       <c r="AQ16" s="23"/>
       <c r="AR16" s="23"/>
     </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C31" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B32" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <f>(C13-D13)/SQRT((C14/C11)+(D14/D11))</f>
+        <v>-34.02599257574505</v>
+      </c>
+      <c r="D32">
+        <f>_xlfn.NORM.S.DIST(C32,TRUE)</f>
+        <v>4.5979157881711545E-254</v>
+      </c>
+      <c r="E32">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B33" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <f>(E13-F13)/SQRT((E14/E11)+(F14/F11))</f>
+        <v>-25.204186510162899</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ref="D33:D52" si="3">_xlfn.NORM.S.DIST(C33,TRUE)</f>
+        <v>1.8019826320979097E-140</v>
+      </c>
+      <c r="E33">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B34" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <f>(G13-H13)/SQRT((G14/G11)+(H14/H11))</f>
+        <v>-20.425972673203329</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="3"/>
+        <v>4.9140842093948145E-93</v>
+      </c>
+      <c r="E34">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B35" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <f>(I13-J13)/SQRT((I14/I11)+(J14/90))</f>
+        <v>-11.956899985078532</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="3"/>
+        <v>2.9875572580052933E-33</v>
+      </c>
+      <c r="E35">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B36" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <f>(K13-L13)/SQRT((K14/K11)+(L14/L11))</f>
+        <v>-25.204186510162899</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="3"/>
+        <v>1.8019826320979097E-140</v>
+      </c>
+      <c r="E36">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B37" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <f>(M13-N13)/SQRT((M14/M11)+(N14/N11))</f>
+        <v>-29.386041680175264</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="3"/>
+        <v>4.1405632992800006E-190</v>
+      </c>
+      <c r="E37">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B38" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <f>(O13-P13)/SQRT((O14/O11)+(P14/P11))</f>
+        <v>-31.000273372222729</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="3"/>
+        <v>2.6724819719481464E-211</v>
+      </c>
+      <c r="E38">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B39" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <f>(Q13-R13)/SQRT((Q14/Q11)+(R14/R11))</f>
+        <v>-14.388777577128977</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="3"/>
+        <v>3.043107237809058E-47</v>
+      </c>
+      <c r="E39">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B40" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <f>(S13-T13)/SQRT((S14/S11)+(T14/T11))</f>
+        <v>-13.520672386299937</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="3"/>
+        <v>5.9045742265881282E-42</v>
+      </c>
+      <c r="E40">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B41" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <f>(U13-V13)/SQRT((U14/U11)+(V14/V11))</f>
+        <v>-17.570850301196042</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="3"/>
+        <v>2.0597574358160461E-69</v>
+      </c>
+      <c r="E41">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B42" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42">
+        <f>(W13-X13)/SQRT((W14/W11)+(X14/X11))</f>
+        <v>-18.182745801939792</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="3"/>
+        <v>3.53516733284866E-74</v>
+      </c>
+      <c r="E42">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B43" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43">
+        <f>(Y13-Z13)/SQRT((Y14/90)+(Z14/Z11))</f>
+        <v>-16.117751440003008</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="3"/>
+        <v>9.5724765147041116E-59</v>
+      </c>
+      <c r="E43">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B44" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44">
+        <f>(AA13-AB13)/SQRT((AA14/AA11)+(AB14/AB11))</f>
+        <v>-22.763947971904127</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="3"/>
+        <v>5.2204569057520592E-115</v>
+      </c>
+      <c r="E44">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B45" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45">
+        <f>(AC13-AD13)/SQRT((AC14/AC11)+(AD14/AD11))</f>
+        <v>1.520192194471226</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="3"/>
+        <v>0.93576866070184206</v>
+      </c>
+      <c r="E45">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B46" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46">
+        <f>(AE13-AF13)/SQRT((AE14/AE11)+(AF14/AF11))</f>
+        <v>-24.236792203533877</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="3"/>
+        <v>4.556288703259289E-130</v>
+      </c>
+      <c r="E46">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B47" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47">
+        <f>(AG13-AH13)/SQRT((AG14/90)+(AH14/90))</f>
+        <v>-17.220646932873532</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="3"/>
+        <v>9.294930072931443E-67</v>
+      </c>
+      <c r="E47">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B48" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48">
+        <f>(AI13-AJ13)/SQRT((AI14/AI11)+(AJ14/AJ11))</f>
+        <v>-17.405776022948213</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="3"/>
+        <v>3.7294182376216063E-68</v>
+      </c>
+      <c r="E48">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B49" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49">
+        <f>(AK13-AL13)/SQRT((AK14/AK11)+(AL14/AL11))</f>
+        <v>-19.685230647565209</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="3"/>
+        <v>1.4431003929389278E-86</v>
+      </c>
+      <c r="E49">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B50" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50">
+        <f>(AM13-AN13)/SQRT((AM14/AM11)+(AN14/AN11))</f>
+        <v>-10.21323250814552</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="3"/>
+        <v>8.6501638471545923E-25</v>
+      </c>
+      <c r="E50">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B51" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51">
+        <f>(AO13-AP13)/SQRT((AO14/AO11)+(AP14/AP11))</f>
+        <v>-13.635127072401369</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="3"/>
+        <v>1.2377963008779913E-42</v>
+      </c>
+      <c r="E51">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B52" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52">
+        <f>(AQ13-AR13)/SQRT((AQ14/AQ11)+(AR14/AR11))</f>
+        <v>-378.39462962716982</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B53" s="49"/>
+    </row>
   </sheetData>
   <mergeCells count="22">
     <mergeCell ref="AM9:AN9"/>
@@ -5269,6 +7195,11 @@
     <mergeCell ref="K9:L9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="D32:D52">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>$E$32</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
